--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-petroleum.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-petroleum.xlsx
@@ -321,7 +321,7 @@
     <t>Diesel, synthetic, from petroleum-based hydrogen, energy allocation, at fuelling station</t>
   </si>
   <si>
-    <t>synfuel from FT from hydrogen from petorleum cracking</t>
+    <t>synfuel from FT from hydrogen from petroleum cracking</t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4476,7 +4476,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A242" s="7" t="s">
+      <c r="A242" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B242" s="4">
